--- a/Jogos_do_Dia/2024-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -718,10 +718,10 @@
         <v>1.23</v>
       </c>
       <c r="K2">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="M2">
         <v>1.2</v>
@@ -742,10 +742,10 @@
         <v>5.02</v>
       </c>
       <c r="S2">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T2">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -763,10 +763,10 @@
         <v>3.7</v>
       </c>
       <c r="Z2">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AA2">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AB2">
         <v>1.81</v>
@@ -846,13 +846,13 @@
         <v>4.75</v>
       </c>
       <c r="J3">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -873,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="S3">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -977,13 +977,13 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M4">
         <v>1.57</v>
@@ -1001,7 +1001,7 @@
         <v>1.5</v>
       </c>
       <c r="R4">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="S4">
         <v>2.36</v>
